--- a/1. Projektplanung und Dokumentation/1.1 Zeiterfassung/Zeiterfassung_Bertscher_Florian.xlsx
+++ b/1. Projektplanung und Dokumentation/1.1 Zeiterfassung/Zeiterfassung_Bertscher_Florian.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\FR1PEPF0000115B\EXCELCNV\747b6977-3da7-44ed-82aa-db90968b5ea6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{D6C10FF8-A74F-4AB0-B013-6E2136E8F4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21D37CEB-6F3F-4414-B1B6-C52C659B2AD3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{411E49F7-2BDB-463F-B160-19E7F1DE9196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{7AE1CA23-AD4B-4D81-9025-1BECA79D0D28}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>Name:</t>
   </si>
@@ -47,9 +47,6 @@
     <t>MatrNr:</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Projekt:</t>
   </si>
   <si>
@@ -59,6 +56,9 @@
     <t>Team:</t>
   </si>
   <si>
+    <t>GUI</t>
+  </si>
+  <si>
     <t>Datum</t>
   </si>
   <si>
@@ -78,6 +78,48 @@
   </si>
   <si>
     <t>Aufgaben und scope besprechung</t>
+  </si>
+  <si>
+    <t>Recherchen</t>
+  </si>
+  <si>
+    <t>OpenGL and Raytracing</t>
+  </si>
+  <si>
+    <t>Aufgabenverteilung festlegune Libs</t>
+  </si>
+  <si>
+    <t>Emergency Meeting</t>
+  </si>
+  <si>
+    <t>Umstieg in JAVA</t>
+  </si>
+  <si>
+    <t>NanoGui limitations and possibilities</t>
+  </si>
+  <si>
+    <t>Progress Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aufgabenverteilung, Organisierung </t>
+  </si>
+  <si>
+    <t>Offline-Treffen</t>
+  </si>
+  <si>
+    <t>Importer, überarbeitet -&gt; für NanoGui</t>
+  </si>
+  <si>
+    <t>Settings-Szene fertiggestellt, Gegenseitige Unterstüzung</t>
+  </si>
+  <si>
+    <t>Aufgaben</t>
+  </si>
+  <si>
+    <t>UI-fertig gestellt + Converter fixx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erfahrungsbericht </t>
   </si>
 </sst>
 </file>
@@ -433,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D002FBF6-BD85-4B28-8E08-90ED76AAE7DA}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -460,24 +502,24 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>3</v>
+      <c r="B2" s="6">
+        <v>3140350</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -520,6 +562,202 @@
       </c>
       <c r="D8" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4">
+        <v>45581</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4">
+        <v>45586</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4">
+        <v>45587</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4">
+        <v>45588</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4">
+        <v>45592</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4">
+        <v>45593</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4">
+        <v>45598</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4">
+        <v>45600</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2.15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4">
+        <v>45605</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4">
+        <v>45612</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4">
+        <v>45624</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4">
+        <v>45628</v>
+      </c>
+      <c r="B20" s="2">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="4">
+        <v>45676</v>
+      </c>
+      <c r="B21" s="2">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="4">
+        <v>45677</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -531,6 +769,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -539,7 +783,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100EA32FAADEF28B246BE81F09370D9BDD6" ma:contentTypeVersion="4" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="ee5e8cab159ec08823d71aeff920ea58">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bcfc458b-b0e2-47b4-8909-d39697dfebcc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6553d0449cd115c0021964cc0df6b6b1" ns2:_="">
     <xsd:import namespace="bcfc458b-b0e2-47b4-8909-d39697dfebcc"/>
@@ -683,20 +927,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{038E9307-CE72-4574-B266-76AF3EABEF0D}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{636EAE1A-B2F2-466C-B896-3C016823333C}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78452C59-B1F0-432F-9CD6-BDDDB4129A32}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{038E9307-CE72-4574-B266-76AF3EABEF0D}"/>
 </file>